--- a/1_data/tables.xlsx
+++ b/1_data/tables.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Projects\generic_project\1_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Projects\iron_trajectories\1_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC76095-3DD5-4ADC-A9C8-8CEF9F69B11E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36B4A6C-BC00-4ACE-A91F-C18552E8528E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FD511D9A-EB76-4ABE-81DE-0F0E048ADAAB}"/>
+    <workbookView xWindow="16320" yWindow="3885" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{ABA0EB75-5678-4C60-AECA-1EEC357CFFB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample" sheetId="1" r:id="rId1"/>
+    <sheet name="features" sheetId="1" r:id="rId1"/>
+    <sheet name="mod_tuning" sheetId="2" r:id="rId2"/>
+    <sheet name="tripod" sheetId="4" r:id="rId3"/>
+    <sheet name="param_lookup" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,46 +37,951 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>col1</t>
-  </si>
-  <si>
-    <t>col2</t>
-  </si>
-  <si>
-    <t>subhead</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>[@Keane2018]</t>
-  </si>
-  <si>
-    <t>Yes^[Footnote 2]</t>
-  </si>
-  <si>
-    <t>[@Langham2018a]^[Footnote 1]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="311">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Donation history</t>
+  </si>
+  <si>
+    <t>DER_RBC_Last12months</t>
+  </si>
+  <si>
+    <t>DER_RBC_Last24months</t>
+  </si>
+  <si>
+    <t>DER_RBCLoss_Units</t>
+  </si>
+  <si>
+    <t>RQ1_Ever_Donated</t>
+  </si>
+  <si>
+    <t>cumLifetimeDonations</t>
+  </si>
+  <si>
+    <t>DD_ABO_RH</t>
+  </si>
+  <si>
+    <t>DER_AdjVenousHgb</t>
+  </si>
+  <si>
+    <t>DER_Weight</t>
+  </si>
+  <si>
+    <t>DER_Height</t>
+  </si>
+  <si>
+    <t>Missing for 6 donors (same 5 missing weight plus one additional) with 23 follow-up donations. Age 27 - 69. Imputing mean height by gender amon those age &gt;25.</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Missing for same 6 donors missing height. Calculating from (imputed) weight and height</t>
+  </si>
+  <si>
+    <t>DER_EBV</t>
+  </si>
+  <si>
+    <t>DER_RedCellVolume</t>
+  </si>
+  <si>
+    <t>Calculated total body red cell volume; none missing</t>
+  </si>
+  <si>
+    <t>DER_PercentRBCLoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Percent of red cell lost at donation; none missing</t>
+  </si>
+  <si>
+    <t>DD_Country</t>
+  </si>
+  <si>
+    <t>1 if US-born, 0 otherwise. Missing for &lt;1%; if missing re-coding as US-born (&gt;95%)</t>
+  </si>
+  <si>
+    <t>DER_Age</t>
+  </si>
+  <si>
+    <t>Available for all, 18 - 87</t>
+  </si>
+  <si>
+    <t>no missing. 52% female at baseline; 51% for followups</t>
+  </si>
+  <si>
+    <t>DD_Raceth</t>
+  </si>
+  <si>
+    <t>RQ7_Ever_Smoked</t>
+  </si>
+  <si>
+    <t>Recoding to 0 no and 1 yes. If NA (60%) or don't know (3%), recoding to no (68% of respondents)</t>
+  </si>
+  <si>
+    <t>RQ8_Smoked_Past_90Days</t>
+  </si>
+  <si>
+    <t>RQ11_Liver</t>
+  </si>
+  <si>
+    <t>Recoding as times per week 0 (never), 0.5 (&lt;1/wk), 1 (1/wk), 2 (2/wk), 3.5 (3-4x/wk), 5.5 (5-6x/wk), 7 (daily), 14 (2x or more/day); 59 are 99 (blank/don't know); setting them to most common which was never</t>
+  </si>
+  <si>
+    <t>Recoding as times per week 0 (never), 0.5 (&lt;1/wk), 1 (1/wk), 2 (2/wk), 3.5 (3-4x/wk), 5.5 (5-6x/wk), 7 (daily), 14 (2x or more/day); 98 are 99 (blank/don't know); setting them to most common which was 2x/wk</t>
+  </si>
+  <si>
+    <t>RQ11_Beef</t>
+  </si>
+  <si>
+    <t>RQ11_Clams</t>
+  </si>
+  <si>
+    <t>Recoding as times per week 0 (never), 0.5 (&lt;1/wk), 1 (1/wk), 2 (2/wk), 3.5 (3-4x/wk), 5.5 (5-6x/wk), 7 (daily), 14 (2x or more/day); 121 are 99 (blank/don't know); setting them to most common which was never</t>
+  </si>
+  <si>
+    <t>Oysters, mussels, shrimp, sardines. Recoding as times per week 0 (never), 0.5 (&lt;1/wk), 1 (1/wk), 2 (2/wk), 3.5 (3-4x/wk), 5.5 (5-6x/wk), 7 (daily), 14 (2x or more/day); 100 are 99 (blank/don't know); setting them to most common which was less than 1/wk</t>
+  </si>
+  <si>
+    <t>RQ11_OMSS</t>
+  </si>
+  <si>
+    <t>RQ11_OtrFish</t>
+  </si>
+  <si>
+    <t>Recoding as times per week 0 (never), 0.5 (&lt;1/wk), 1 (1/wk), 2 (2/wk), 3.5 (3-4x/wk), 5.5 (5-6x/wk), 7 (daily), 14 (2x or more/day); 38 are 99 (blank/don't know); setting them to most common which was &lt;1x/wk</t>
+  </si>
+  <si>
+    <t>RQ11_Eggs</t>
+  </si>
+  <si>
+    <t>Recoding as times per week 0 (never), 0.5 (&lt;1/wk), 1 (1/wk), 2 (2/wk), 3.5 (3-4x/wk), 5.5 (5-6x/wk), 7 (daily), 14 (2x or more/day); 62 are 99 (blank/don't know); setting them to most common which was 1x/wk</t>
+  </si>
+  <si>
+    <t>RQ11_Dairy</t>
+  </si>
+  <si>
+    <t>Recoding as times per week 0 (never), 0.5 (&lt;1/wk), 1 (1/wk), 2 (2/wk), 3.5 (3-4x/wk), 5.5 (5-6x/wk), 7 (daily), 14 (2x or more/day); 33 are 99 (blank/don't know); setting them to most common which was 1x/day</t>
+  </si>
+  <si>
+    <t>compositeIronScore</t>
+  </si>
+  <si>
+    <t>Missing for 13 at baseline. Imputing mean.</t>
+  </si>
+  <si>
+    <t>multivitamins_per_week</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recoding as 0 for no period, 1 for spotting, 2 for very light, 3 for light, 4 for moderate, 5 for heavy, 6 for very heavy/gushing. 3 women who have periods had a '9', presumably don't know or refused to answer. Recoding to most common answer, which was 4 (moderate),</t>
+  </si>
+  <si>
+    <t>RQ19_MenstrualFlow/5 * RQ17_NumberOf_Periods/12</t>
+  </si>
+  <si>
+    <t>menstrual_flow_times_freq</t>
+  </si>
+  <si>
+    <t>RQ20_NumberOfPregnancies</t>
+  </si>
+  <si>
+    <t>RQ21_NumberOfLiveBirths</t>
+  </si>
+  <si>
+    <t>gender_menstrating_cohorts</t>
+  </si>
+  <si>
+    <t>3 categories: male, female menstrating (&gt;0 periods in last year), female not menstrating (0 periods in last year)</t>
+  </si>
+  <si>
+    <t>DER_RBCLoss_mL</t>
+  </si>
+  <si>
+    <t>DER_DaysRBCLoss</t>
+  </si>
+  <si>
+    <t>DER_DaysDRLoss</t>
+  </si>
+  <si>
+    <t>DD_Gender</t>
+  </si>
+  <si>
+    <t>RQ11_LPCT</t>
+  </si>
+  <si>
+    <t>supp_iron_pct_of_daily</t>
+  </si>
+  <si>
+    <t>RQ17_NumberOfPeriods</t>
+  </si>
+  <si>
+    <t>RQ19_Ever_Pregnant</t>
+  </si>
+  <si>
+    <t>RQ18_Menstrual_Flow</t>
+  </si>
+  <si>
+    <t>ARUP_Ferritin</t>
+  </si>
+  <si>
+    <t>ARUP_STR</t>
+  </si>
+  <si>
+    <t>DER_ARUP_log_Ferr</t>
+  </si>
+  <si>
+    <t>DER_ARUP_log_STfR_Ferr</t>
+  </si>
+  <si>
+    <t>DER_BodyIron</t>
+  </si>
+  <si>
+    <t>Fingerstick HGB or HCT</t>
+  </si>
+  <si>
+    <t>1 donor has UNT. Setting to most common value in dataset, O+ (40% of donors at baseline)</t>
+  </si>
+  <si>
+    <t>ABO-Rh blood type</t>
+  </si>
+  <si>
+    <t>Not collected at all follow-up visits. If missing, set to fingerstick value</t>
+  </si>
+  <si>
+    <t>Weight (pounds)</t>
+  </si>
+  <si>
+    <t>Height (inches)</t>
+  </si>
+  <si>
+    <t>Missing for 5 donors with 22 follow-up donations. 4 M, 1 F, ages 27 - 69. Imputing mean weight by gender among those aged &gt;25</t>
+  </si>
+  <si>
+    <t>Body Mass Index</t>
+  </si>
+  <si>
+    <t>Estimated Blood Volume (Nadler's equations)</t>
+  </si>
+  <si>
+    <t>None missing</t>
+  </si>
+  <si>
+    <t>US born</t>
+  </si>
+  <si>
+    <t>Race/ethnicity (Asian, Black, Hispanic, Other, White)</t>
+  </si>
+  <si>
+    <t>0.7% missing; Recoding to "O" (other)</t>
+  </si>
+  <si>
+    <t>Ever donated blood before</t>
+  </si>
+  <si>
+    <t>Total lifetime donations</t>
+  </si>
+  <si>
+    <t>Smoked at least 100 cigarettes in lifetime</t>
+  </si>
+  <si>
+    <t>Recoding to 0 (no) and 1(yes). For "don't know" (26) and "missing" (10), coding to "no" because majority (60%)</t>
+  </si>
+  <si>
+    <t>Smoked in last 90 days</t>
+  </si>
+  <si>
+    <t>Liver consumption (times per week)</t>
+  </si>
+  <si>
+    <t>Beef consumption (times per week)</t>
+  </si>
+  <si>
+    <t>Lamb, pork, chicken, or turkey consumption (times per week)</t>
+  </si>
+  <si>
+    <t>Recoding as times per week 0 (never), 0.5 (&lt;1/wk), 1 (1/wk), 2 (2/wk), 3.5 (3-4x/wk), 5.5 (5-6x/wk), 7 (daily), 14 (2x or more/day); 59 are 99 (blank/don't know); setting them to most common which was 3.5x/wk</t>
+  </si>
+  <si>
+    <t>Clams consumption (times per week)</t>
+  </si>
+  <si>
+    <t>Oysters, mussels, shrimp, or sardines consumption (times per week)</t>
+  </si>
+  <si>
+    <t>Other fish consumption (times per week)</t>
+  </si>
+  <si>
+    <t>Egg consumption (times per week)</t>
+  </si>
+  <si>
+    <t>Dairy consumption (times per week)</t>
+  </si>
+  <si>
+    <t>Composite dietary iron score</t>
+  </si>
+  <si>
+    <t>Based on RQ12A_MultiVitamins_YN and RQ12B_MultiVitamins_How_Often. Recoding to times per week. "1: everyday" becomes 7; "2: 4-6x per week" becomes 5; "3: 1-3 days per week" becomes 2. Don't know/missing (51) set to daily (7/wk). If they answered yes to taking multivitamins but missing or don't know for how often, coding as 4-6x per week.</t>
+  </si>
+  <si>
+    <t>Multivitimin consumption (times per week)</t>
+  </si>
+  <si>
+    <t>Supplemental iron</t>
+  </si>
+  <si>
+    <t>Periods in last year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original is NA for all men and all women who say their period stopped, and for one F 19yo donor who answered NA to menstrual status question, likely because she is pre-menstrual and that wasn't an option. Coding all NAs as 0. Also, equal to 99 (don't know) for 13 donors who said yes to having periods. Coding to the most common value which is 12. </t>
+  </si>
+  <si>
+    <t>Menstrual flow intensity</t>
+  </si>
+  <si>
+    <t>Menstrual frequency and flow</t>
+  </si>
+  <si>
+    <t>Gender &amp; menstration cohort</t>
+  </si>
+  <si>
+    <t>Ever pregnant</t>
+  </si>
+  <si>
+    <t>Originally NA for all men and 10 women. Recoding as 0 (no) and 1 (yes), all NAs coded as 0.</t>
+  </si>
+  <si>
+    <t>Number of pregnancies</t>
+  </si>
+  <si>
+    <t>Number of live births</t>
+  </si>
+  <si>
+    <t>Originally NA for all men and 356 women (same as never pregnant), 1-6 for other women. Coding NAs as 0.</t>
+  </si>
+  <si>
+    <t>Originally NA fo rall men and 356 women; Coding NAs as 0.</t>
+  </si>
+  <si>
+    <t>FingerstickHGB_equiv</t>
+  </si>
+  <si>
+    <t>Total body red blood cell volume</t>
+  </si>
+  <si>
+    <t>Estimated percent red blood cell volume loss at visit</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Red blood cell loss in last 12 months</t>
+  </si>
+  <si>
+    <t>Red blood cell loss in last 24 months</t>
+  </si>
+  <si>
+    <t>Units of red blood cell lost at this donation</t>
+  </si>
+  <si>
+    <t>Volume of red blood cell loss at this donation (mL)</t>
+  </si>
+  <si>
+    <t>Days since last red blood cell loss</t>
+  </si>
+  <si>
+    <t>Days since last double red blood cell donation</t>
+  </si>
+  <si>
+    <t>Ferritin (mg/dL)</t>
+  </si>
+  <si>
+    <t>Soluble Transferrin Receptor (STfR) (nmol/L)</t>
+  </si>
+  <si>
+    <t>Log of ferritin</t>
+  </si>
+  <si>
+    <t>STfR divided by the log of ferritin</t>
+  </si>
+  <si>
+    <t>Body iron in mg/kg calculated from STfR</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t>Biometric</t>
+  </si>
+  <si>
+    <t>Survey responses from baseline visit</t>
+  </si>
+  <si>
+    <t>Additional biometrics available for some donations</t>
+  </si>
+  <si>
+    <t>Set NAs (36%) to 10 years ago (10*365 days)</t>
+  </si>
+  <si>
+    <t>Used as-is.</t>
+  </si>
+  <si>
+    <t>Recoded to 0 (no), 1 (yes); set as 1 for all followup donations since they gave an index donation</t>
+  </si>
+  <si>
+    <t>If lifetime donations missing from baseline questionaire, set to 0. For follow-up visits, increased by 1 for all donations.</t>
+  </si>
+  <si>
+    <t>Used fingerstick HGB if measured. Otherwise, used fingerstick HCT/3.04. If also missing, used adjusted venous HGB.</t>
+  </si>
+  <si>
+    <t>Venous HGB (converted to pre-donation if measured from a post-donation sample)</t>
+  </si>
+  <si>
+    <t>Feature engineering</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Values assessed</t>
+  </si>
+  <si>
+    <t>Top configuration hyperparameter value</t>
+  </si>
+  <si>
+    <t>Hyperparameters</t>
+  </si>
+  <si>
+    <t>time_to_fu</t>
+  </si>
+  <si>
+    <t>DD_ABO_RHA+</t>
+  </si>
+  <si>
+    <t>DD_ABO_RHO+</t>
+  </si>
+  <si>
+    <t>DD_RacethW</t>
+  </si>
+  <si>
+    <t>DD_ABO_RHO-</t>
+  </si>
+  <si>
+    <t>DD_ABO_RHB+</t>
+  </si>
+  <si>
+    <t>Gender_F</t>
+  </si>
+  <si>
+    <t>DD_RacethB</t>
+  </si>
+  <si>
+    <t>DD_RacethH</t>
+  </si>
+  <si>
+    <t>DD_RacethA</t>
+  </si>
+  <si>
+    <t>DD_ABO_RHAB+</t>
+  </si>
+  <si>
+    <t>DD_ABO_RHB-</t>
+  </si>
+  <si>
+    <t>DD_RacethO</t>
+  </si>
+  <si>
+    <t>DD_ABO_RHAB-</t>
+  </si>
+  <si>
+    <t>gender_menstrating_cohortsF_no_menstr</t>
+  </si>
+  <si>
+    <t>Venous HGB</t>
+  </si>
+  <si>
+    <t>Time to return</t>
+  </si>
+  <si>
+    <t>Fingerstick HGB</t>
+  </si>
+  <si>
+    <t>Body mass index</t>
+  </si>
+  <si>
+    <t>Days since last RBC loss</t>
+  </si>
+  <si>
+    <t>RBC units lost last 24 months</t>
+  </si>
+  <si>
+    <t>Percent RBC lost this visit</t>
+  </si>
+  <si>
+    <t>Estimated blood volume (L)</t>
+  </si>
+  <si>
+    <t>RBC volume lost this visit (mL)</t>
+  </si>
+  <si>
+    <t>Estimated RBC volume (mL)</t>
+  </si>
+  <si>
+    <t>Cumulative lifetime donations</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Daily supplemental iron</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Feature_disp</t>
+  </si>
+  <si>
+    <t>Learning rate</t>
+  </si>
+  <si>
+    <t>Maximum tree depth</t>
+  </si>
+  <si>
+    <t>Minimum child weight</t>
+  </si>
+  <si>
+    <t>Row subsampling per tree</t>
+  </si>
+  <si>
+    <t>column subsampling per tree</t>
+  </si>
+  <si>
+    <t>0.01, 0.05, 0.1, 0.3</t>
+  </si>
+  <si>
+    <t>2, 4, 6, 8, 10, 12, 14, 16, 18, 20</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 4, 8</t>
+  </si>
+  <si>
+    <t>0.65, 0.8, 1</t>
+  </si>
+  <si>
+    <t>0.8, 0.9, 1</t>
+  </si>
+  <si>
+    <t>Gradient boosted decision trees (R package xgboost)</t>
+  </si>
+  <si>
+    <t>Random forest (R package randomForest)</t>
+  </si>
+  <si>
+    <t>Maximum number of trees</t>
+  </si>
+  <si>
+    <t>Sampling with replacement?</t>
+  </si>
+  <si>
+    <t>yes, no</t>
+  </si>
+  <si>
+    <t>1, 2, 4, 8</t>
+  </si>
+  <si>
+    <t>Minimum size of terminal nodes</t>
+  </si>
+  <si>
+    <t>250, 500, 750, 1000, 1250, 1500, 1750, 2000, 2250, 2500</t>
+  </si>
+  <si>
+    <t>alpha (0 = ridge, 1 = lasso)</t>
+  </si>
+  <si>
+    <t>0, .25, .5, .75, 1</t>
+  </si>
+  <si>
+    <t>Elasticnet penalized logistic regression (R package glmnet)</t>
+  </si>
+  <si>
+    <t>lambda (penalty weight)</t>
+  </si>
+  <si>
+    <t>0, 0.01, 0.02, 0.03, 0.04, 0.05, 0.06, 0.07, 0.08, 0.09, 0.1</t>
+  </si>
+  <si>
+    <t>Regression trees (R package rpart)</t>
+  </si>
+  <si>
+    <t>Complexity parameter</t>
+  </si>
+  <si>
+    <t>Minimum observations per split</t>
+  </si>
+  <si>
+    <t>10, 15, 20, 25, 30</t>
+  </si>
+  <si>
+    <t>0.001, 0.005, 0.01, 0.05, 0.1</t>
+  </si>
+  <si>
+    <t>Elasticnet with all second order interactions (R package glmnet)</t>
+  </si>
+  <si>
+    <t>Top configuration AUC (mean and range)</t>
+  </si>
+  <si>
+    <t>Value between 0 (no iron suppl) and 1 (daily iron suppl), where multivitamins or iron supplementation are both counted as supplemental iron. Computed as min(1, (ironsupp_per_week + RQ12C_MV_WithIron_YN * multivitamins_per_week) /7))</t>
+  </si>
+  <si>
+    <t>Use as-is for extra biomarkers model</t>
+  </si>
+  <si>
+    <t>SB: 0.01, XB: 0.05</t>
+  </si>
+  <si>
+    <t>SB: 16, XB: 6</t>
+  </si>
+  <si>
+    <t>SB: 2, XB: 8</t>
+  </si>
+  <si>
+    <t>SB: 0.65, XB: 0.65</t>
+  </si>
+  <si>
+    <t>SB: 0.8, XB: 0.9</t>
+  </si>
+  <si>
+    <t>SB: 4, XB: 8</t>
+  </si>
+  <si>
+    <t>SB: 2500, XB: 2250</t>
+  </si>
+  <si>
+    <t>SB: yes, XB: no</t>
+  </si>
+  <si>
+    <t>SB: 0, XB: 0.75</t>
+  </si>
+  <si>
+    <t>SB: 0.04, XB: 0.01</t>
+  </si>
+  <si>
+    <t>SB: 0, XB: 0</t>
+  </si>
+  <si>
+    <t>SB: 0.01, XB: 0</t>
+  </si>
+  <si>
+    <t>SB: 0.001, XB: 0.001</t>
+  </si>
+  <si>
+    <t>SB: 30, XB: 30</t>
+  </si>
+  <si>
+    <t>SB:  75.93% (75.41% - 76.45%)
+XB: 82.05% (81.69% - 82.41%)</t>
+  </si>
+  <si>
+    <t>SB: 75.90% (75.28% - 76.52%)
+XB: 80.92% (80.52% - 81.33%)</t>
+  </si>
+  <si>
+    <t>SB: 72.49% (71.99% - 72.99%)
+XB: 80.28% (79.85% - 80.71%)</t>
+  </si>
+  <si>
+    <t>SB: 74.74% (74.22% - 75.26%)
+XB: 82.05% (81.69% - 82.41%)</t>
+  </si>
+  <si>
+    <t>SB: 66.99% (66.32% - 67.65%)
+XB: 75.59% (74.98% - 76.20%)</t>
+  </si>
+  <si>
+    <t>Title and abstract</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Identify the study as developing and/or validating a multivariable prediction model, the target population, and the outcome to be predicted.</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Provide a summary of objectives, study design, setting, participants, sample size, predictors, outcome, statistical analysis, results, and conclusions.</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Background and objectives</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>Explain the medical context (including whether diagnostic or prognostic) and rationale for developing or validating the multivariable prediction model, including references to existing models.</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>Specify the objectives, including whether the study describes the development or validation of the model or both.</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Source of data</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>Describe the study design or source of data (e.g., randomized trial, cohort, or registry data), separately for the development and validation data sets, if applicable.</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify the key study dates, including start of accrual; end of accrual; and, if applicable, end of follow-up. </t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>Specify key elements of the study setting (e.g., primary care, secondary care, general population) including number and location of centres.</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe eligibility criteria for participants. </t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give details of treatments received, if relevant. </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clearly define the outcome that is predicted by the prediction model, including how and when assessed. </t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report any actions to blind assessment of the outcome to be predicted. </t>
+  </si>
+  <si>
+    <t>Predictors</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>Clearly define all predictors used in developing or validating the multivariable prediction model, including how and when they were measured.</t>
+  </si>
+  <si>
+    <t>Table S1</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report any actions to blind assessment of predictors for the outcome and other predictors. </t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>Explain how the study size was arrived at.</t>
+  </si>
+  <si>
+    <t>Missing data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe how missing data were handled (e.g., complete-case analysis, single imputation, multiple imputation) with details of any imputation method. </t>
+  </si>
+  <si>
+    <t>Statistical analysis methods</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe how predictors were handled in the analyses. </t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>Specify type of model, all model-building procedures (including any predictor selection), and method for internal validation.</t>
+  </si>
+  <si>
+    <t>10d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify all measures used to assess model performance and, if relevant, to compare multiple models. </t>
+  </si>
+  <si>
+    <t>Risk groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide details on how risk groups were created, if done. </t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>13a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe the flow of participants through the study, including the number of participants with and without the outcome and, if applicable, a summary of the follow-up time. A diagram may be helpful. </t>
+  </si>
+  <si>
+    <t>13b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe the characteristics of the participants (basic demographics, clinical features, available predictors), including the number of participants with missing data for predictors and outcome. </t>
+  </si>
+  <si>
+    <t>Prior pubs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model development </t>
+  </si>
+  <si>
+    <t>14a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify the number of participants and outcome events in each analysis. </t>
+  </si>
+  <si>
+    <t>14b</t>
+  </si>
+  <si>
+    <t>If done, report the unadjusted association between each candidate predictor and outcome.</t>
+  </si>
+  <si>
+    <t>Prior pubs</t>
+  </si>
+  <si>
+    <t>Model specification</t>
+  </si>
+  <si>
+    <t>15a</t>
+  </si>
+  <si>
+    <t>Present the full prediction model to allow predictions for individuals (i.e., all regression coefficients, and model intercept or baseline survival at a given time point).</t>
+  </si>
+  <si>
+    <t>15b</t>
+  </si>
+  <si>
+    <t>Explain how to the use the prediction model.</t>
+  </si>
+  <si>
+    <t>Model performance</t>
+  </si>
+  <si>
+    <t>Report performance measures (with CIs) for the prediction model.</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Limitations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss any limitations of the study (such as nonrepresentative sample, few events per predictor, missing data). </t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>19b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give an overall interpretation of the results, considering objectives, limitations, and results from similar studies, and other relevant evidence. </t>
+  </si>
+  <si>
+    <t>Implications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss the potential clinical use of the model and implications for future research. </t>
+  </si>
+  <si>
+    <t>Other information</t>
+  </si>
+  <si>
+    <t>Supplementary information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide information about the availability of supplementary resources, such as study protocol, Web calculator, and data sets. </t>
+  </si>
+  <si>
+    <t>Funding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give the source of funding and the role of the funders for the present study. </t>
+  </si>
+  <si>
+    <t>Section/Topic</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Checklist Item</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>Code repo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,20 +990,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFBFBFBF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -103,14 +1065,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,77 +1505,1967 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6B55D8-F496-4084-B55D-ABB6EB68893D}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9EFFE6-6CDA-4C8E-8818-AAFC4EE38CE0}">
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView view="pageLayout" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8340687-E9D1-446A-A3A5-B883A5CF53E4}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="50.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B302A0D-A1C1-4A14-BE1B-1A543D658958}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C4" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="10">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" s="10">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="10">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="10">
+        <v>16</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33" s="10">
+        <v>18</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="10">
+        <v>20</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" s="10">
+        <v>21</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D37" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="10">
+        <v>22</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" s="12">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE2A7B-1FCD-4D17-B189-3DCF31B77365}">
+  <dimension ref="A1:B58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B48" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
